--- a/사내매거진운영가이드_GitHubDesktop가이드_with 권한 설정 안내.xlsx
+++ b/사내매거진운영가이드_GitHubDesktop가이드_with 권한 설정 안내.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\In-house-Magazine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D83406-61D9-436A-9568-BB516C697370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DB1772-9907-4F08-86A7-0364E9E9D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>https://github.com 접속</t>
   </si>
@@ -459,6 +459,10 @@
       </rPr>
       <t xml:space="preserve"> 1 단계: GitHub 계정 만들기</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin main</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -595,14 +599,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -899,13 +903,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>762747</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>67096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -943,13 +947,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>376207</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>172213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +991,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>208823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>182113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1087,13 +1091,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>734786</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1153,13 +1157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1209,13 +1213,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1687286</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1275,13 +1279,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1292679</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3265714</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1593,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1606,7 +1610,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1647,7 +1651,7 @@
       <c r="A11" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="21.75">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1715,15 +1719,15 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6"/>
@@ -1781,7 +1785,7 @@
       <c r="A49" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="21.75">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1797,15 +1801,15 @@
       <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -1819,7 +1823,7 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B63" t="s">
@@ -1833,7 +1837,7 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -1842,7 +1846,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -1851,7 +1855,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -1860,160 +1864,165 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="9" t="s">
+    <row r="74" spans="1:9">
+      <c r="A74" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="9" t="s">
+    <row r="75" spans="1:9">
+      <c r="A75" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="9" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="9"/>
-    </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A93" s="8"/>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21.75">
-      <c r="A98" s="10" t="s">
+    <row r="99" spans="1:1" ht="21.75">
+      <c r="A99" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2"/>
-    </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2"/>
-    </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2"/>
-    </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2"/>
-    </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="2"/>
-    </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/사내매거진운영가이드_GitHubDesktop가이드_with 권한 설정 안내.xlsx
+++ b/사내매거진운영가이드_GitHubDesktop가이드_with 권한 설정 안내.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\In-house-Magazine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DB1772-9907-4F08-86A7-0364E9E9D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D2864-F665-4050-B826-E0EE7F99F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,10 +186,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">가입 후, 계정 지윤환 에게 공유해주시면 에디터 권한 부여 드립니다. </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>👉</t>
   </si>
   <si>
@@ -227,10 +223,6 @@
   </si>
   <si>
     <t>https://github.com/Agency8Group/org-chart</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">한 web에 기능,페이지들을 한바구니에 담지않아 각각 필요한 기능을 각각 제어 가능한 상태 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -463,6 +455,14 @@
   </si>
   <si>
     <t>git pull origin main</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계정 생성 후 사용자명을 지윤환에게 전달해주시면에디터 권한 부여 드립니다. </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 기능은 독립된 저장소로 관리되며, 필요에 따라 개별 접근 및 수정 가능합니다.”</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1599,9 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1611,7 +1609,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1635,7 +1633,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1652,7 +1650,7 @@
     </row>
     <row r="24" spans="1:7" ht="21.75">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1665,62 +1663,62 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
         <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
         <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1786,7 +1784,7 @@
     </row>
     <row r="56" spans="1:9" ht="21.75">
       <c r="A56" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1810,10 +1808,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1824,10 +1822,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1865,7 +1863,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -1879,32 +1877,32 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -1960,22 +1958,22 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21.75">
       <c r="A99" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:1">

--- a/사내매거진운영가이드_GitHubDesktop가이드_with 권한 설정 안내.xlsx
+++ b/사내매거진운영가이드_GitHubDesktop가이드_with 권한 설정 안내.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\In-house-Magazine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D2864-F665-4050-B826-E0EE7F99F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DDDBF-0DFE-4884-BDC8-50EE9078EC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>https://github.com 접속</t>
   </si>
@@ -463,6 +463,10 @@
   </si>
   <si>
     <t>각 기능은 독립된 저장소로 관리되며, 필요에 따라 개별 접근 및 수정 가능합니다.”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 작업은 병렬로 처리할 경우 코드에 심각한 오류를 초래합니다. 1인 1컨트롤 방식으로 유지하는것이 좋습니다. (백업 담당자 필요ex.경영관리실인원1)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -632,13 +636,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>65317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>201206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -676,13 +680,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>91091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>337898</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>39238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -720,13 +724,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3952875</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -786,13 +790,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3181350</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>802822</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -842,13 +846,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>421824</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>59753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>370115</xdr:colOff>
-      <xdr:row>430</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>195824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -903,13 +907,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>762747</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>67096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,13 +951,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>376207</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>172213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -991,13 +995,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>208823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>182113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1035,13 +1039,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>802822</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>421822</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1091,13 +1095,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>734786</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1157,13 +1161,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1213,13 +1217,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1687286</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1279,13 +1283,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1292679</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3265714</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1597,9 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1607,318 +1613,329 @@
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.75">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="21.75">
-      <c r="A24" s="9" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="21.75">
+      <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="10" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:1">
       <c r="A49" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="21.75">
-      <c r="A56" s="9" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="61" spans="1:1" ht="21.75">
+      <c r="A61" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="8" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="8"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="8"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="8"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="8"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="8"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A71" s="8"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="8"/>
@@ -1957,81 +1974,97 @@
       <c r="A93" s="8"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="8"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="8"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="8"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="8"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="4" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="4" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21.75">
-      <c r="A99" s="9" t="s">
+    <row r="104" spans="1:1" ht="21.75">
+      <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2"/>
     </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A32:G32"/>
+  <mergeCells count="2">
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://github.com/" xr:uid="{20BFA362-5F52-4C31-896B-56F79A924816}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{7C0CB011-6154-4E51-BCF7-C94AF876EF78}"/>
-    <hyperlink ref="C31" r:id="rId3" xr:uid="{79FBACBF-0B8D-492E-9CE3-52D2C82655AC}"/>
-    <hyperlink ref="B62" r:id="rId4" xr:uid="{8514DDEA-6B50-48EA-813F-1A34DF1B7363}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://github.com/" xr:uid="{20BFA362-5F52-4C31-896B-56F79A924816}"/>
+    <hyperlink ref="C34" r:id="rId2" xr:uid="{7C0CB011-6154-4E51-BCF7-C94AF876EF78}"/>
+    <hyperlink ref="C36" r:id="rId3" xr:uid="{79FBACBF-0B8D-492E-9CE3-52D2C82655AC}"/>
+    <hyperlink ref="B67" r:id="rId4" xr:uid="{8514DDEA-6B50-48EA-813F-1A34DF1B7363}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
